--- a/data/activos.xlsx
+++ b/data/activos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>id</t>
   </si>
@@ -91,6 +91,9 @@
     <t>100003</t>
   </si>
   <si>
+    <t>08</t>
+  </si>
+  <si>
     <t>M11</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>Vent-Plus 5</t>
   </si>
   <si>
+    <t>M4</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
@@ -118,6 +124,9 @@
     <t>SN-VT-0102</t>
   </si>
   <si>
+    <t>3000</t>
+  </si>
+  <si>
     <t>1111</t>
   </si>
   <si>
@@ -130,6 +139,9 @@
     <t>Draeger</t>
   </si>
   <si>
+    <t>Geo</t>
+  </si>
+  <si>
     <t>2025-11-07</t>
   </si>
   <si>
@@ -145,24 +157,6 @@
     <t>2022-05-20</t>
   </si>
   <si>
-    <t>9.925565912405506</t>
-  </si>
-  <si>
-    <t>8.743936220084137</t>
-  </si>
-  <si>
-    <t>10.02294839451015</t>
-  </si>
-  <si>
-    <t>-84.16625976562501</t>
-  </si>
-  <si>
-    <t>-85.11108398437501</t>
-  </si>
-  <si>
-    <t>-84.17175292968751</t>
-  </si>
-  <si>
     <t>Cliente</t>
   </si>
   <si>
@@ -178,7 +172,13 @@
     <t>1000</t>
   </si>
   <si>
-    <t>nan</t>
+    <t>1250000</t>
+  </si>
+  <si>
+    <t>850000</t>
+  </si>
+  <si>
+    <t>3250000</t>
   </si>
   <si>
     <t>RFID-000045</t>
@@ -564,7 +564,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N7"/>
+  <dimension ref="A1:N8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,28 +622,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H2" t="s">
-        <v>46</v>
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>9.925565912405506</v>
+      </c>
+      <c r="H2">
+        <v>-84.16625976562501</v>
       </c>
       <c r="I2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -652,7 +652,7 @@
         <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N2" t="s">
         <v>59</v>
@@ -666,7 +666,7 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -675,22 +675,22 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>8.743936220084137</v>
+      </c>
+      <c r="H3">
+        <v>-85.11108398437501</v>
+      </c>
+      <c r="I3" t="s">
         <v>47</v>
       </c>
-      <c r="I3" t="s">
-        <v>49</v>
-      </c>
       <c r="J3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M3" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N3" t="s">
         <v>59</v>
@@ -710,19 +710,19 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>10.02294839451015</v>
+      </c>
+      <c r="H4">
+        <v>-84.17175292968751</v>
       </c>
       <c r="J4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -733,16 +733,16 @@
         <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G5">
         <v>9.935</v>
@@ -751,13 +751,10 @@
         <v>-84.09099999999999</v>
       </c>
       <c r="I5" t="s">
-        <v>50</v>
-      </c>
-      <c r="J5">
-        <v>1250000</v>
-      </c>
-      <c r="K5" t="s">
-        <v>54</v>
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>52</v>
       </c>
       <c r="M5" t="s">
         <v>58</v>
@@ -774,16 +771,16 @@
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="G6">
         <v>9.977</v>
@@ -792,10 +789,10 @@
         <v>-84.188</v>
       </c>
       <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6">
-        <v>850000</v>
+        <v>49</v>
+      </c>
+      <c r="J6" t="s">
+        <v>53</v>
       </c>
       <c r="K6" t="s">
         <v>55</v>
@@ -815,16 +812,16 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="G7">
         <v>10.016</v>
@@ -833,10 +830,10 @@
         <v>-84.21299999999999</v>
       </c>
       <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7">
-        <v>3250000</v>
+        <v>50</v>
+      </c>
+      <c r="J7" t="s">
+        <v>54</v>
       </c>
       <c r="K7" t="s">
         <v>56</v>
@@ -849,6 +846,35 @@
       </c>
       <c r="N7" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>9.867393094500864</v>
+      </c>
+      <c r="H8">
+        <v>-83.90533447265626</v>
+      </c>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/activos.xlsx
+++ b/data/activos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -73,6 +73,12 @@
     <t>5</t>
   </si>
   <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
@@ -112,6 +118,12 @@
     <t>M4</t>
   </si>
   <si>
+    <t>Monitor UltraSharp</t>
+  </si>
+  <si>
+    <t>Servidor</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
@@ -127,6 +139,12 @@
     <t>3000</t>
   </si>
   <si>
+    <t>MU54321</t>
+  </si>
+  <si>
+    <t>Ser1100</t>
+  </si>
+  <si>
     <t>1111</t>
   </si>
   <si>
@@ -142,6 +160,12 @@
     <t>Geo</t>
   </si>
   <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
     <t>2025-11-07</t>
   </si>
   <si>
@@ -157,6 +181,60 @@
     <t>2022-05-20</t>
   </si>
   <si>
+    <t>2023-03-15</t>
+  </si>
+  <si>
+    <t>2021-11-03</t>
+  </si>
+  <si>
+    <t>9.925565912405506</t>
+  </si>
+  <si>
+    <t>8.743936220084137</t>
+  </si>
+  <si>
+    <t>10.02294839451015</t>
+  </si>
+  <si>
+    <t>9.935</t>
+  </si>
+  <si>
+    <t>9.977</t>
+  </si>
+  <si>
+    <t>10.016</t>
+  </si>
+  <si>
+    <t>9.867393094500864</t>
+  </si>
+  <si>
+    <t>9.377247973297916</t>
+  </si>
+  <si>
+    <t>-84.16625976562501</t>
+  </si>
+  <si>
+    <t>-85.11108398437501</t>
+  </si>
+  <si>
+    <t>-84.17175292968751</t>
+  </si>
+  <si>
+    <t>-84.091</t>
+  </si>
+  <si>
+    <t>-84.188</t>
+  </si>
+  <si>
+    <t>-84.213</t>
+  </si>
+  <si>
+    <t>-83.90533447265626</t>
+  </si>
+  <si>
+    <t>-83.8195525210938</t>
+  </si>
+  <si>
     <t>Cliente</t>
   </si>
   <si>
@@ -169,6 +247,12 @@
     <t>Hospital San Vicente</t>
   </si>
   <si>
+    <t>INS</t>
+  </si>
+  <si>
+    <t>Banco Nacional</t>
+  </si>
+  <si>
     <t>1000</t>
   </si>
   <si>
@@ -181,16 +265,40 @@
     <t>3250000</t>
   </si>
   <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>318</t>
+  </si>
+  <si>
     <t>RFID-000045</t>
   </si>
   <si>
     <t>RFID-000102</t>
   </si>
   <si>
+    <t>RFID003</t>
+  </si>
+  <si>
+    <t>RFID030</t>
+  </si>
+  <si>
     <t>https://example.com/fotos/vent-plus-5.jpg</t>
   </si>
   <si>
+    <t>monitor.jpg</t>
+  </si>
+  <si>
+    <t>servidor.jpg</t>
+  </si>
+  <si>
     <t>2025-11-08 00:51:41</t>
+  </si>
+  <si>
+    <t>2025-11-08 22:22:22</t>
+  </si>
+  <si>
+    <t>2025-11-08 23:03:50</t>
   </si>
   <si>
     <t>Eddye</t>
@@ -564,7 +672,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,31 +727,31 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2">
-        <v>9.925565912405506</v>
-      </c>
-      <c r="H2">
-        <v>-84.16625976562501</v>
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" t="s">
+        <v>65</v>
       </c>
       <c r="I2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s">
         <v>14</v>
@@ -652,10 +760,10 @@
         <v>14</v>
       </c>
       <c r="M2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -663,10 +771,10 @@
         <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
@@ -675,30 +783,30 @@
         <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3">
-        <v>8.743936220084137</v>
-      </c>
-      <c r="H3">
-        <v>-85.11108398437501</v>
+        <v>50</v>
+      </c>
+      <c r="G3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>47</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="M3" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="B4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
         <v>14</v>
@@ -710,19 +818,19 @@
         <v>14</v>
       </c>
       <c r="F4" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" t="s">
         <v>43</v>
       </c>
-      <c r="G4">
-        <v>10.02294839451015</v>
-      </c>
-      <c r="H4">
-        <v>-84.17175292968751</v>
-      </c>
-      <c r="J4" t="s">
-        <v>37</v>
-      </c>
       <c r="M4" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -730,37 +838,37 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5">
-        <v>9.935</v>
-      </c>
-      <c r="H5">
-        <v>-84.09099999999999</v>
+        <v>52</v>
+      </c>
+      <c r="G5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H5" t="s">
+        <v>68</v>
       </c>
       <c r="I5" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="J5" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="M5" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="N5" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -768,40 +876,40 @@
         <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6">
-        <v>9.977</v>
-      </c>
-      <c r="H6">
-        <v>-84.188</v>
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>69</v>
       </c>
       <c r="I6" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="K6" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="M6" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -809,72 +917,145 @@
         <v>18</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G7">
-        <v>10.016</v>
-      </c>
-      <c r="H7">
-        <v>-84.21299999999999</v>
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" t="s">
+        <v>70</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s">
-        <v>54</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>56</v>
+        <v>86</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="M7" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="N7" t="s">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="B8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G8" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
         <v>41</v>
       </c>
-      <c r="F8" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8">
-        <v>9.867393094500864</v>
-      </c>
-      <c r="H8">
-        <v>-83.90533447265626</v>
-      </c>
-      <c r="J8">
-        <v>1000</v>
-      </c>
-      <c r="M8" t="s">
-        <v>43</v>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="I9" t="s">
+        <v>77</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>87</v>
+      </c>
+      <c r="L9" t="s">
+        <v>90</v>
+      </c>
+      <c r="M9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" t="s">
+        <v>64</v>
+      </c>
+      <c r="H10" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" t="s">
+        <v>88</v>
+      </c>
+      <c r="L10" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/activos.xlsx
+++ b/data/activos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="70">
   <si>
     <t>id</t>
   </si>
@@ -58,54 +58,21 @@
     <t>usuario</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>100001</t>
+  </si>
+  <si>
+    <t>M11</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>100000</t>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>100001</t>
-  </si>
-  <si>
-    <t>100002</t>
-  </si>
-  <si>
-    <t>100003</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>M11</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>ECG-3000</t>
   </si>
   <si>
@@ -124,6 +91,9 @@
     <t>Servidor</t>
   </si>
   <si>
+    <t>Laptop MX</t>
+  </si>
+  <si>
     <t>111</t>
   </si>
   <si>
@@ -145,6 +115,9 @@
     <t>Ser1100</t>
   </si>
   <si>
+    <t>M01</t>
+  </si>
+  <si>
     <t>1111</t>
   </si>
   <si>
@@ -166,6 +139,9 @@
     <t>Apple</t>
   </si>
   <si>
+    <t>HP</t>
+  </si>
+  <si>
     <t>2025-11-07</t>
   </si>
   <si>
@@ -187,52 +163,7 @@
     <t>2021-11-03</t>
   </si>
   <si>
-    <t>9.925565912405506</t>
-  </si>
-  <si>
-    <t>8.743936220084137</t>
-  </si>
-  <si>
-    <t>10.02294839451015</t>
-  </si>
-  <si>
-    <t>9.935</t>
-  </si>
-  <si>
-    <t>9.977</t>
-  </si>
-  <si>
-    <t>10.016</t>
-  </si>
-  <si>
-    <t>9.867393094500864</t>
-  </si>
-  <si>
-    <t>9.377247973297916</t>
-  </si>
-  <si>
-    <t>-84.16625976562501</t>
-  </si>
-  <si>
-    <t>-85.11108398437501</t>
-  </si>
-  <si>
-    <t>-84.17175292968751</t>
-  </si>
-  <si>
-    <t>-84.091</t>
-  </si>
-  <si>
-    <t>-84.188</t>
-  </si>
-  <si>
-    <t>-84.213</t>
-  </si>
-  <si>
-    <t>-83.90533447265626</t>
-  </si>
-  <si>
-    <t>-83.8195525210938</t>
+    <t>2025/11/10</t>
   </si>
   <si>
     <t>Cliente</t>
@@ -253,24 +184,6 @@
     <t>Banco Nacional</t>
   </si>
   <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>1250000</t>
-  </si>
-  <si>
-    <t>850000</t>
-  </si>
-  <si>
-    <t>3250000</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>318</t>
-  </si>
-  <si>
     <t>RFID-000045</t>
   </si>
   <si>
@@ -283,6 +196,9 @@
     <t>RFID030</t>
   </si>
   <si>
+    <t>nan</t>
+  </si>
+  <si>
     <t>https://example.com/fotos/vent-plus-5.jpg</t>
   </si>
   <si>
@@ -299,6 +215,12 @@
   </si>
   <si>
     <t>2025-11-08 23:03:50</t>
+  </si>
+  <si>
+    <t>2025-11-10 23:37:12</t>
+  </si>
+  <si>
+    <t>2025-11-11 00:02:30</t>
   </si>
   <si>
     <t>Eddye</t>
@@ -672,7 +594,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N10"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -723,339 +645,412 @@
       </c>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>9.925565912405506</v>
+      </c>
+      <c r="H2">
+        <v>-84.16625976562501</v>
+      </c>
+      <c r="I2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>100000</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3">
+        <v>8.743936220084137</v>
+      </c>
+      <c r="H3">
+        <v>-85.11108398437501</v>
+      </c>
+      <c r="I3" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3">
+        <v>1000</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4">
+        <v>10.02294839451015</v>
+      </c>
+      <c r="H4">
+        <v>-84.17175292968751</v>
+      </c>
+      <c r="J4">
+        <v>1111</v>
+      </c>
+      <c r="M4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>100001</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>9.935</v>
+      </c>
+      <c r="H5">
+        <v>-84.09099999999999</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5">
+        <v>1250000</v>
+      </c>
+      <c r="M5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>100002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6">
+        <v>9.977</v>
+      </c>
+      <c r="H6">
+        <v>-84.188</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6">
+        <v>850000</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>100003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G7">
+        <v>10.016</v>
+      </c>
+      <c r="H7">
+        <v>-84.21299999999999</v>
+      </c>
+      <c r="I7" t="s">
+        <v>53</v>
+      </c>
+      <c r="J7">
+        <v>3250000</v>
+      </c>
+      <c r="K7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M7" t="s">
+        <v>64</v>
+      </c>
+      <c r="N7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8">
+        <v>9.867393094500864</v>
+      </c>
+      <c r="H8">
+        <v>-83.90533447265626</v>
+      </c>
+      <c r="J8">
+        <v>1000</v>
+      </c>
+      <c r="M8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9">
+        <v>300</v>
+      </c>
+      <c r="K9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L9" t="s">
+        <v>62</v>
+      </c>
+      <c r="M9" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10">
+        <v>9.377247973297916</v>
+      </c>
+      <c r="H10">
+        <v>-83.8195525210938</v>
+      </c>
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="J10">
+        <v>318</v>
+      </c>
+      <c r="K10" t="s">
+        <v>59</v>
+      </c>
+      <c r="L10" t="s">
+        <v>63</v>
+      </c>
+      <c r="M10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11">
+        <v>9.860628145365903</v>
+      </c>
+      <c r="H11">
+        <v>-84.04541015625001</v>
+      </c>
+      <c r="J11">
+        <v>1000</v>
+      </c>
+      <c r="M11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="A12" t="s">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J2" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L2" t="s">
-        <v>14</v>
-      </c>
-      <c r="M2" t="s">
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12">
+        <v>9.935</v>
+      </c>
+      <c r="H12">
+        <v>-84.09099999999999</v>
+      </c>
+      <c r="I12" t="s">
         <v>51</v>
       </c>
-      <c r="N2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s">
-        <v>79</v>
-      </c>
-      <c r="M3" t="s">
-        <v>50</v>
-      </c>
-      <c r="N3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="B4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>51</v>
-      </c>
-      <c r="G4" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" t="s">
-        <v>67</v>
-      </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="J12">
+        <v>1250000</v>
+      </c>
+      <c r="K12" t="s">
         <v>60</v>
       </c>
-      <c r="H5" t="s">
+      <c r="L12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M12" t="s">
         <v>68</v>
-      </c>
-      <c r="I5" t="s">
-        <v>74</v>
-      </c>
-      <c r="J5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M5" t="s">
-        <v>92</v>
-      </c>
-      <c r="N5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" t="s">
-        <v>69</v>
-      </c>
-      <c r="I6" t="s">
-        <v>75</v>
-      </c>
-      <c r="J6" t="s">
-        <v>81</v>
-      </c>
-      <c r="K6" t="s">
-        <v>85</v>
-      </c>
-      <c r="M6" t="s">
-        <v>92</v>
-      </c>
-      <c r="N6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I7" t="s">
-        <v>76</v>
-      </c>
-      <c r="J7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="M7" t="s">
-        <v>92</v>
-      </c>
-      <c r="N7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="B8" t="s">
-        <v>27</v>
-      </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F8" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" t="s">
-        <v>63</v>
-      </c>
-      <c r="H8" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" t="s">
-        <v>79</v>
-      </c>
-      <c r="M8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="D9" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>55</v>
-      </c>
-      <c r="I9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K9" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" t="s">
-        <v>90</v>
-      </c>
-      <c r="M9" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" t="s">
-        <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H10" t="s">
-        <v>72</v>
-      </c>
-      <c r="I10" t="s">
-        <v>78</v>
-      </c>
-      <c r="J10" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>

--- a/data/activos.xlsx
+++ b/data/activos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -505,6 +505,692 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Servidor</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Ser1686</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Dell</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>8.648095982874079</v>
+      </c>
+      <c r="H2" t="n">
+        <v>-83.73422215451265</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>UCR</t>
+        </is>
+      </c>
+      <c r="J2" t="n">
+        <v>2682</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>RFID001</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>servidor.jpg</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:21:26</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>Eddye</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Lap7529</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>9.66476755630492</v>
+      </c>
+      <c r="H3" t="n">
+        <v>-83.60864026397024</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>UCR</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>3760</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>RFID002</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>laptop.jpg</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:21:30</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>Eddye</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Impresora</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Imp2378</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>9.936870483057699</v>
+      </c>
+      <c r="H4" t="n">
+        <v>-83.24460629558965</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Cementos</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>270</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>RFID003</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>impresora.jpg</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:22:34</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>Eddye</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Lap7743</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2023-02-22</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
+        <v>8.391659697604995</v>
+      </c>
+      <c r="H5" t="n">
+        <v>-83.1757621674498</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Aguas de San José</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>1574</v>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>RFID004</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>laptop.jpg</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:22:37</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Eddye</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Lap5074</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Apple</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2021-05-24</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>10.25489325497851</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-83.0847209579649</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Intel</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>1066</v>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>RFID005</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>laptop.jpg</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:22:39</t>
+        </is>
+      </c>
+      <c r="N6" t="inlineStr">
+        <is>
+          <t>Eddye</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Servidor</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Ser2147</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Acer</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2022-06-19</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>11.00098763243626</v>
+      </c>
+      <c r="H7" t="n">
+        <v>-82.48088590190869</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Café Britt</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>4405</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>RFID006</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>servidor.jpg</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:22:42</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>Eddye</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Impresora</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Imp2300</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>HP</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2023-11-25</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
+        <v>10.9938002660345</v>
+      </c>
+      <c r="H8" t="n">
+        <v>-82.76849073978178</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Café Britt</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>2934</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>RFID007</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>impresora.jpg</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:22:44</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>Eddye</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Servidor</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Ser7171</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2020-05-03</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>8.362647280788314</v>
+      </c>
+      <c r="H9" t="n">
+        <v>-82.60047134723389</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>INS</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>404</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>RFID008</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>servidor.jpg</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:22:48</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>Eddye</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Proyector</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Pro3822</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Asus</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2022-08-06</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>8.214068223634941</v>
+      </c>
+      <c r="H10" t="n">
+        <v>-83.54146351366171</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Café Britt</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>139</v>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>RFID009</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>proyector.jpg</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:22:50</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>Eddye</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Monitor</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Mon8620</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Samsung</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2023-01-20</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
+        <v>9.516712090383992</v>
+      </c>
+      <c r="H11" t="n">
+        <v>-82.40371033704683</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Café Britt</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>4407</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>RFID010</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>monitor.jpg</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:22:58</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>Eddye</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Servidor</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Ser9304</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Lenovo</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>8.346347538953188</v>
+      </c>
+      <c r="H12" t="n">
+        <v>-82.73732785586918</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>UCR</t>
+        </is>
+      </c>
+      <c r="J12" t="n">
+        <v>1343</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>RFID011</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>servidor.jpg</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>2025-11-12 20:23:02</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>Eddye</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
